--- a/biology/Médecine/Prilocaïne/Prilocaïne.xlsx
+++ b/biology/Médecine/Prilocaïne/Prilocaïne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>priloca%C3%AFne</t>
+          <t>prilocaïne</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-La lidocaïne/prilocaïne est un mélange eutectique de quantités égales (en poids) de lidocaïne et de prilocaïne. Une préparation d'émulsion à 5 %, contenant chacune 2,5 % de lidocaïne/prilocaïne, est commercialisée sous le nom commercial EMLA (abréviation de « Eutectic Mixture of Local Anesthetics »)[1], il est commercialisé sous forme de spray au nom de Tempe (abréviation de « Topical eutectic-like mixture for premature ejaculation »)  utilisé par les hommes pour le traitement de l'éjaculation précoce[2].
+La lidocaïne/prilocaïne est un mélange eutectique de quantités égales (en poids) de lidocaïne et de prilocaïne. Une préparation d'émulsion à 5 %, contenant chacune 2,5 % de lidocaïne/prilocaïne, est commercialisée sous le nom commercial EMLA (abréviation de « Eutectic Mixture of Local Anesthetics »), il est commercialisé sous forme de spray au nom de Tempe (abréviation de « Topical eutectic-like mixture for premature ejaculation »)  utilisé par les hommes pour le traitement de l'éjaculation précoce.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>priloca%C3%AFne</t>
+          <t>prilocaïne</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Mélange eutectique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Séparément, la lidocaïne et la prilocaïne sont des bases solides. Lorsqu'ils sont mélangés en quantités égales en poids, cependant, ils forment un mélange eutectique - c'est-à-dire que le point de fusion du mélange est inférieur aux points de fusion des composants individuels. Le mélange eutectique lidocaïne/prilocaïne est une huile dont le point de fusion est de 18 °C, et peut être formulé en préparations sans l'utilisation d'un solvant non aqueux[3]. Cela permet à des concentrations plus élevées d'anesthésique d'être formulées dans la préparation et maintenues pendant l'application.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Séparément, la lidocaïne et la prilocaïne sont des bases solides. Lorsqu'ils sont mélangés en quantités égales en poids, cependant, ils forment un mélange eutectique - c'est-à-dire que le point de fusion du mélange est inférieur aux points de fusion des composants individuels. Le mélange eutectique lidocaïne/prilocaïne est une huile dont le point de fusion est de 18 °C, et peut être formulé en préparations sans l'utilisation d'un solvant non aqueux. Cela permet à des concentrations plus élevées d'anesthésique d'être formulées dans la préparation et maintenues pendant l'application.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>priloca%C3%AFne</t>
+          <t>prilocaïne</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,16 +559,91 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Indications
-L'association lidocaïne/prilocaïne est indiquée pour l'anesthésie cutanée. Plus précisément, il est appliqué pour prévenir la douleur associée à l'insertion d'un cathéter intraveineux, au prélèvement sanguin, aux interventions chirurgicales superficielles et à l'anesthésie topique des ulcères de jambe pour le nettoyage ou le débridement[4]. En outre, il peut être utilisé pour engourdir la peau avant le tatouage ainsi que pour l'électrolyse et l'épilation au laser. Il est également parfois utilisé avant l'injection d'anesthésiques locaux pour les interventions chirurgicales mineures et les biopsies.
-Un spray topique contenant  lidocaïne et  prilocaïne a été évalué pour une utilisation dans le traitement de l'éjaculation précoce. Le spray est appliqué sur la peau du pénis avant les rapports sexuels. Bien que cette formulation n'ait pas été approuvée par la FDA[5], un produit similaire, Promescent, est disponible en vente libre aux États-Unis.
-Formes posologiques
-Le mélange eutectique lidocaïne/prilocaïne est commercialisé sous la forme d'une émulsion huile dans eau à 5 % incorporée dans une base de crème (crème EMLA) ou un disque de cellulose (patch EMLA). La crème est appliquée sous un pansement occlusif, tandis que le patch incorpore un pansement occlusif pour faciliter l'absorption de la lidocaïne et de la prilocaïne dans la zone où l'anesthésie est requise. L'anesthésie dermique locale est réalisée après environ une heure, après quoi le pansement occlusif (ou patch) est retiré. La durée de l'anesthésie est d'environ deux heures après le retrait du pansement occlusif.
-E. Fougera &amp; Co., fabricants de la crème générique largement utilisée aux États-Unis sous le nom de Lidocaine and Prilocaine Cream, 2.5%/2.5%, recommande un moment différent pour l'application de la crème ainsi que la durée de l'anesthésie. Ils précisent que la crème doit être appliquée au moins une heure avant le début d'une procédure de routine et pendant deux heures avant le début d'une procédure douloureuse. De plus, ils précisent que la durée d'une anesthésie cutanée efficace sera d'au moins une heure après le retrait du pansement occlusif[6].
-Circoncision
-L'EMLA a été utilisé avant la circoncision  et a été considéré comme efficace et sûr pour atténuer la douleur de la circoncision.
-L'Agence européenne des médicaments conclut dans sa déclaration de 2014 sur Emla : "La sécurité et l'efficacité de l'utilisation d'EMLA sur la peau génitale et la muqueuse génitale n'ont pas été établies chez les enfants de moins de 12 ans. Les données pédiatriques disponibles ne démontrent pas une efficacité adéquate pour la circoncision."[7].
-La notice d'information du patient d'EMLA au Royaume-Uni stipule : "La crème EMLA ne doit pas être appliquée sur la peau génitale (par exemple, le pénis) et la muqueuse génitale (par exemple, dans le vagin) des enfants (de moins de 12 ans) en raison de données insuffisantes sur l'absorption de substances actives." [8].
+          <t>Indications</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'association lidocaïne/prilocaïne est indiquée pour l'anesthésie cutanée. Plus précisément, il est appliqué pour prévenir la douleur associée à l'insertion d'un cathéter intraveineux, au prélèvement sanguin, aux interventions chirurgicales superficielles et à l'anesthésie topique des ulcères de jambe pour le nettoyage ou le débridement. En outre, il peut être utilisé pour engourdir la peau avant le tatouage ainsi que pour l'électrolyse et l'épilation au laser. Il est également parfois utilisé avant l'injection d'anesthésiques locaux pour les interventions chirurgicales mineures et les biopsies.
+Un spray topique contenant  lidocaïne et  prilocaïne a été évalué pour une utilisation dans le traitement de l'éjaculation précoce. Le spray est appliqué sur la peau du pénis avant les rapports sexuels. Bien que cette formulation n'ait pas été approuvée par la FDA, un produit similaire, Promescent, est disponible en vente libre aux États-Unis.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>prilocaïne</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lidoca%C3%AFne/priloca%C3%AFne</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Utilisation clinique</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Formes posologiques</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mélange eutectique lidocaïne/prilocaïne est commercialisé sous la forme d'une émulsion huile dans eau à 5 % incorporée dans une base de crème (crème EMLA) ou un disque de cellulose (patch EMLA). La crème est appliquée sous un pansement occlusif, tandis que le patch incorpore un pansement occlusif pour faciliter l'absorption de la lidocaïne et de la prilocaïne dans la zone où l'anesthésie est requise. L'anesthésie dermique locale est réalisée après environ une heure, après quoi le pansement occlusif (ou patch) est retiré. La durée de l'anesthésie est d'environ deux heures après le retrait du pansement occlusif.
+E. Fougera &amp; Co., fabricants de la crème générique largement utilisée aux États-Unis sous le nom de Lidocaine and Prilocaine Cream, 2.5%/2.5%, recommande un moment différent pour l'application de la crème ainsi que la durée de l'anesthésie. Ils précisent que la crème doit être appliquée au moins une heure avant le début d'une procédure de routine et pendant deux heures avant le début d'une procédure douloureuse. De plus, ils précisent que la durée d'une anesthésie cutanée efficace sera d'au moins une heure après le retrait du pansement occlusif.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>prilocaïne</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lidoca%C3%AFne/priloca%C3%AFne</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Utilisation clinique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Circoncision</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'EMLA a été utilisé avant la circoncision  et a été considéré comme efficace et sûr pour atténuer la douleur de la circoncision.
+L'Agence européenne des médicaments conclut dans sa déclaration de 2014 sur Emla : "La sécurité et l'efficacité de l'utilisation d'EMLA sur la peau génitale et la muqueuse génitale n'ont pas été établies chez les enfants de moins de 12 ans. Les données pédiatriques disponibles ne démontrent pas une efficacité adéquate pour la circoncision.".
+La notice d'information du patient d'EMLA au Royaume-Uni stipule : "La crème EMLA ne doit pas être appliquée sur la peau génitale (par exemple, le pénis) et la muqueuse génitale (par exemple, dans le vagin) des enfants (de moins de 12 ans) en raison de données insuffisantes sur l'absorption de substances actives." .
 </t>
         </is>
       </c>
